--- a/report/162-188/260204-1-18.xlsx
+++ b/report/162-188/260204-1-18.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="12330" windowHeight="8070" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="296">
   <si>
     <r>
       <rPr>
@@ -1057,6 +1057,9 @@
     <t>游离氯</t>
   </si>
   <si>
+    <t>0.50</t>
+  </si>
+  <si>
     <t>0.30</t>
   </si>
   <si>
@@ -1406,6 +1409,9 @@
     <t xml:space="preserve">pH             </t>
   </si>
   <si>
+    <t>8.20</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -1769,6 +1775,9 @@
   </si>
   <si>
     <t xml:space="preserve">硫酸盐(mg/L) </t>
+  </si>
+  <si>
+    <t>9.50</t>
   </si>
   <si>
     <r>
@@ -2320,6 +2329,9 @@
     <t>总氮(mg/L)</t>
   </si>
   <si>
+    <t>0.90</t>
+  </si>
+  <si>
     <t>氨(以N计)(mg/L)</t>
   </si>
   <si>
@@ -2720,6 +2732,9 @@
       </rPr>
       <t>W260204C16</t>
     </r>
+  </si>
+  <si>
+    <t>0.0170</t>
   </si>
   <si>
     <r>
@@ -3278,13 +3293,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
+      <sz val="11"/>
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="17"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="21"/>
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
@@ -3294,8 +3319,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
@@ -3307,28 +3331,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="17"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="21"/>
+      <sz val="16"/>
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
@@ -3345,6 +3348,18 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
@@ -5248,7 +5263,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:K25"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5333,11 +5348,11 @@
         <v>0.45</v>
       </c>
       <c r="D5" s="93"/>
-      <c r="E5" s="76">
-        <v>0.5</v>
+      <c r="E5" s="76" t="s">
+        <v>82</v>
       </c>
       <c r="F5" s="76" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G5" s="76">
         <v>0.23</v>
@@ -5353,7 +5368,7 @@
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:11">
       <c r="A6" s="74" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="101">
@@ -5384,11 +5399,11 @@
     </row>
     <row r="7" ht="21.75" customHeight="1" spans="1:11">
       <c r="A7" s="103" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" s="104"/>
       <c r="C7" s="105" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7" s="105"/>
       <c r="E7" s="106">
@@ -5415,34 +5430,34 @@
     </row>
     <row r="8" ht="21" customHeight="1" spans="1:11">
       <c r="A8" s="75" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B8" s="95"/>
       <c r="C8" s="107" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D8" s="108"/>
       <c r="E8" s="76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F8" s="76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G8" s="76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="76"/>
       <c r="J8" s="76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K8" s="76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" ht="21" customHeight="1" spans="1:11">
       <c r="A9" s="78" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="10">
@@ -5469,7 +5484,7 @@
     </row>
     <row r="10" ht="21" customHeight="1" spans="1:11">
       <c r="A10" s="78" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="10"/>
@@ -5484,7 +5499,7 @@
     </row>
     <row r="11" ht="21" customHeight="1" spans="1:11">
       <c r="A11" s="78" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="10"/>
@@ -5499,7 +5514,7 @@
     </row>
     <row r="12" ht="21" customHeight="1" spans="1:11">
       <c r="A12" s="78" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="76">
@@ -5530,7 +5545,7 @@
     </row>
     <row r="13" ht="21" customHeight="1" spans="1:11">
       <c r="A13" s="78" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="10"/>
@@ -5549,7 +5564,7 @@
     </row>
     <row r="14" ht="21.5" customHeight="1" spans="1:11">
       <c r="A14" s="97" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="10"/>
@@ -5568,7 +5583,7 @@
     </row>
     <row r="15" ht="21.3" customHeight="1" spans="1:11">
       <c r="A15" s="78" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B15" s="36"/>
       <c r="C15" s="10"/>
@@ -5577,17 +5592,17 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="76" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I15" s="76" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
     </row>
     <row r="16" ht="21.5" customHeight="1" spans="1:11">
       <c r="A16" s="78" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="36"/>
       <c r="C16" s="10"/>
@@ -5602,7 +5617,7 @@
     </row>
     <row r="17" ht="21" customHeight="1" spans="1:11">
       <c r="A17" s="78" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B17" s="36"/>
       <c r="C17" s="10"/>
@@ -5617,7 +5632,7 @@
     </row>
     <row r="18" ht="21.5" customHeight="1" spans="1:11">
       <c r="A18" s="78" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B18" s="36"/>
       <c r="C18" s="10"/>
@@ -5632,7 +5647,7 @@
     </row>
     <row r="19" ht="21.5" customHeight="1" spans="1:11">
       <c r="A19" s="78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B19" s="36"/>
       <c r="C19" s="76">
@@ -5659,10 +5674,10 @@
     </row>
     <row r="20" ht="20.05" customHeight="1" spans="1:11">
       <c r="A20" s="109" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B20" s="110" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C20" s="76">
         <v>0</v>
@@ -5688,7 +5703,7 @@
     </row>
     <row r="21" ht="21.5" customHeight="1" spans="1:11">
       <c r="A21" s="111" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="76">
@@ -5715,7 +5730,7 @@
     </row>
     <row r="22" ht="21.5" customHeight="1" spans="1:11">
       <c r="A22" s="78" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B22" s="36"/>
       <c r="C22" s="10"/>
@@ -5724,17 +5739,17 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="76" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I22" s="76" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J22" s="76"/>
       <c r="K22" s="76"/>
     </row>
     <row r="23" ht="21" customHeight="1" spans="1:11">
       <c r="A23" s="78" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B23" s="36"/>
       <c r="C23" s="76"/>
@@ -5749,7 +5764,7 @@
     </row>
     <row r="24" ht="21.5" customHeight="1" spans="1:11">
       <c r="A24" s="77" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B24" s="32"/>
       <c r="C24" s="10"/>
@@ -5764,7 +5779,7 @@
     </row>
     <row r="25" ht="21.25" customHeight="1" spans="1:11">
       <c r="A25" s="78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B25" s="36"/>
       <c r="C25" s="76">
@@ -5873,8 +5888,8 @@
   <sheetPr/>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5896,39 +5911,39 @@
     </row>
     <row r="2" ht="12.75" customHeight="1" spans="1:12">
       <c r="K2" s="89" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" ht="27.75" customHeight="1" spans="1:12">
       <c r="A3" s="73" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="74" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E3" s="74" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="74" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H3" s="22"/>
       <c r="I3" s="74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J3" s="74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K3" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L3" s="74" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" ht="27.75" customHeight="1" spans="1:12">
@@ -5943,7 +5958,7 @@
       <c r="G4" s="92"/>
       <c r="H4" s="93"/>
       <c r="I4" s="76" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J4" s="76"/>
       <c r="K4" s="76">
@@ -5981,7 +5996,7 @@
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:12">
       <c r="A6" s="94" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="76">
@@ -6013,7 +6028,7 @@
     </row>
     <row r="7" ht="21" customHeight="1" spans="1:12">
       <c r="A7" s="75" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B7" s="95"/>
       <c r="C7" s="76">
@@ -6030,8 +6045,8 @@
         <v>7.83</v>
       </c>
       <c r="H7" s="39"/>
-      <c r="I7" s="76">
-        <v>8.2</v>
+      <c r="I7" s="76" t="s">
+        <v>121</v>
       </c>
       <c r="J7" s="76">
         <v>7.97</v>
@@ -6045,35 +6060,35 @@
     </row>
     <row r="8" ht="21.75" customHeight="1" spans="1:12">
       <c r="A8" s="79" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E8" s="96"/>
       <c r="F8" s="34"/>
       <c r="G8" s="96"/>
       <c r="H8" s="34"/>
       <c r="I8" s="76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J8" s="76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K8" s="76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L8" s="76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" ht="21" customHeight="1" spans="1:12">
       <c r="A9" s="78" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="10">
@@ -6093,15 +6108,15 @@
         <v>0.73</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" ht="21.5" customHeight="1" spans="1:12">
       <c r="A10" s="78" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="10"/>
@@ -6117,7 +6132,7 @@
     </row>
     <row r="11" ht="21" customHeight="1" spans="1:12">
       <c r="A11" s="78" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="10"/>
@@ -6133,7 +6148,7 @@
     </row>
     <row r="12" ht="21.5" customHeight="1" spans="1:12">
       <c r="A12" s="97" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="76">
@@ -6154,7 +6169,7 @@
         <v>1.21</v>
       </c>
       <c r="J12" s="76" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K12" s="76">
         <v>1.37</v>
@@ -6165,7 +6180,7 @@
     </row>
     <row r="13" ht="21" customHeight="1" spans="1:12">
       <c r="A13" s="97" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="10"/>
@@ -6185,7 +6200,7 @@
     </row>
     <row r="14" ht="21" customHeight="1" spans="1:12">
       <c r="A14" s="78" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="10"/>
@@ -6195,7 +6210,7 @@
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="76" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="76"/>
@@ -6205,17 +6220,17 @@
     </row>
     <row r="15" ht="21" customHeight="1" spans="1:12">
       <c r="A15" s="97" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B15" s="36"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="76" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="76" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="10"/>
@@ -6225,7 +6240,7 @@
     </row>
     <row r="16" ht="21.5" customHeight="1" spans="1:12">
       <c r="A16" s="78" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="36"/>
       <c r="C16" s="10"/>
@@ -6241,7 +6256,7 @@
     </row>
     <row r="17" ht="21.5" customHeight="1" spans="1:12">
       <c r="A17" s="78" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B17" s="36"/>
       <c r="C17" s="10"/>
@@ -6257,7 +6272,7 @@
     </row>
     <row r="18" ht="21" customHeight="1" spans="1:12">
       <c r="A18" s="78" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B18" s="36"/>
       <c r="C18" s="10"/>
@@ -6273,7 +6288,7 @@
     </row>
     <row r="19" ht="21.5" customHeight="1" spans="1:12">
       <c r="A19" s="97" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B19" s="36"/>
       <c r="C19" s="76">
@@ -6301,7 +6316,7 @@
     </row>
     <row r="20" ht="21" customHeight="1" spans="1:12">
       <c r="A20" s="78" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B20" s="36"/>
       <c r="C20" s="76">
@@ -6329,7 +6344,7 @@
     </row>
     <row r="21" ht="24" customHeight="1" spans="1:12">
       <c r="A21" s="81" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B21" s="32"/>
       <c r="C21" s="76">
@@ -6357,13 +6372,13 @@
     </row>
     <row r="22" ht="21.5" customHeight="1" spans="1:12">
       <c r="A22" s="78" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B22" s="36"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="76" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F22" s="39"/>
       <c r="G22" s="76">
@@ -6377,7 +6392,7 @@
     </row>
     <row r="23" ht="21.5" customHeight="1" spans="1:12">
       <c r="A23" s="78" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B23" s="36"/>
       <c r="C23" s="10"/>
@@ -6393,7 +6408,7 @@
     </row>
     <row r="24" ht="21" customHeight="1" spans="1:12">
       <c r="A24" s="77" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B24" s="32"/>
       <c r="C24" s="10"/>
@@ -6409,7 +6424,7 @@
     </row>
     <row r="25" ht="21.25" customHeight="1" spans="1:12">
       <c r="A25" s="78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B25" s="36"/>
       <c r="C25" s="76">
@@ -6545,7 +6560,7 @@
   <sheetPr/>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -6563,48 +6578,48 @@
   <sheetData>
     <row r="1" ht="20.25" customHeight="1" spans="1:11">
       <c r="E1" s="71" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:11">
       <c r="J2" s="72" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" ht="27.75" customHeight="1" spans="1:11">
       <c r="A3" s="73" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B3" s="74" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="74" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E3" s="74" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F3" s="74" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="74" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I3" s="74" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J3" s="74" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K3" s="74" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:11">
       <c r="A4" s="75" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B4" s="76">
         <v>15.2</v>
@@ -6623,7 +6638,7 @@
     </row>
     <row r="5" ht="21" customHeight="1" spans="1:11">
       <c r="A5" s="75" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B5" s="76">
         <v>8.32</v>
@@ -6642,7 +6657,7 @@
     </row>
     <row r="6" ht="20.5" customHeight="1" spans="1:11">
       <c r="A6" s="77" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -6657,7 +6672,7 @@
     </row>
     <row r="7" ht="21.5" customHeight="1" spans="1:11">
       <c r="A7" s="77" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6672,7 +6687,7 @@
     </row>
     <row r="8" ht="21" customHeight="1" spans="1:11">
       <c r="A8" s="78" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6687,7 +6702,7 @@
     </row>
     <row r="9" ht="21" customHeight="1" spans="1:11">
       <c r="A9" s="79" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -6702,7 +6717,7 @@
     </row>
     <row r="10" ht="21.5" customHeight="1" spans="1:11">
       <c r="A10" s="80" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B10" s="76">
         <v>1.45</v>
@@ -6721,7 +6736,7 @@
     </row>
     <row r="11" ht="21" customHeight="1" spans="1:11">
       <c r="A11" s="77" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B11" s="76">
         <v>9.71</v>
@@ -6740,10 +6755,10 @@
     </row>
     <row r="12" ht="21.5" customHeight="1" spans="1:11">
       <c r="A12" s="74" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="76">
@@ -6759,14 +6774,14 @@
     </row>
     <row r="13" ht="21" customHeight="1" spans="1:11">
       <c r="A13" s="81" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B13" s="76" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="76" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -6778,7 +6793,7 @@
     </row>
     <row r="14" ht="21.5" customHeight="1" spans="1:11">
       <c r="A14" s="77" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -6793,7 +6808,7 @@
     </row>
     <row r="15" ht="21" customHeight="1" spans="1:11">
       <c r="A15" s="78" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B15" s="76"/>
       <c r="C15" s="39"/>
@@ -6808,7 +6823,7 @@
     </row>
     <row r="16" ht="21.5" customHeight="1" spans="1:11">
       <c r="A16" s="77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -6823,7 +6838,7 @@
     </row>
     <row r="17" ht="21" customHeight="1" spans="1:11">
       <c r="A17" s="77" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -6850,7 +6865,7 @@
     </row>
     <row r="18" ht="21.5" customHeight="1" spans="1:11">
       <c r="A18" s="82" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -6877,7 +6892,7 @@
     </row>
     <row r="19" ht="21.5" customHeight="1" spans="1:11">
       <c r="A19" s="77" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -6904,10 +6919,10 @@
     </row>
     <row r="20" ht="21.5" customHeight="1" spans="1:11">
       <c r="A20" s="74" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B20" s="76" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="76">
@@ -6923,7 +6938,7 @@
     </row>
     <row r="21" ht="21" customHeight="1" spans="1:11">
       <c r="A21" s="74" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -6938,7 +6953,7 @@
     </row>
     <row r="22" ht="21.5" customHeight="1" spans="1:11">
       <c r="A22" s="77" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -6953,7 +6968,7 @@
     </row>
     <row r="23" ht="26" customHeight="1" spans="1:11">
       <c r="A23" s="77" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -7047,8 +7062,8 @@
   <sheetPr/>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:E6"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A34" sqref="$A34:$XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7071,15 +7086,15 @@
   <sheetData>
     <row r="1" ht="28.6" customHeight="1" spans="1:14">
       <c r="E1" s="24" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N1" s="53" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:14">
       <c r="A2" s="64" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="30" t="s">
@@ -7111,30 +7126,30 @@
     </row>
     <row r="3" ht="12.75" customHeight="1" spans="1:14">
       <c r="A3" s="40" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
       <c r="F3" s="33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H3" s="34"/>
       <c r="I3" s="33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K3" s="34"/>
       <c r="L3" s="33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M3" s="34"/>
       <c r="N3" s="33">
@@ -7143,7 +7158,7 @@
     </row>
     <row r="4" ht="12.75" customHeight="1" spans="1:14">
       <c r="A4" s="65" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="33">
@@ -7175,11 +7190,11 @@
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:14">
       <c r="A5" s="47" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="38" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="39"/>
@@ -7207,7 +7222,7 @@
     </row>
     <row r="6" ht="12.75" customHeight="1" spans="1:14">
       <c r="A6" s="40" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="33">
@@ -7215,8 +7230,8 @@
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
-      <c r="F6" s="33">
-        <v>9.5</v>
+      <c r="F6" s="33" t="s">
+        <v>169</v>
       </c>
       <c r="G6" s="33">
         <v>7.32</v>
@@ -7239,7 +7254,7 @@
     </row>
     <row r="7" ht="12.75" customHeight="1" spans="1:14">
       <c r="A7" s="41" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="33">
@@ -7262,12 +7277,12 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1" spans="1:14">
       <c r="A8" s="31" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B8" s="32"/>
       <c r="C8" s="33">
@@ -7290,119 +7305,119 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" ht="13" customHeight="1" spans="1:14">
       <c r="A9" s="30" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="33" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
       <c r="F9" s="33" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H9" s="34"/>
       <c r="I9" s="33" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="33" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1" spans="1:14">
       <c r="A10" s="45" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="33" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="33" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H10" s="34"/>
       <c r="I10" s="33" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="33" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1" spans="1:14">
       <c r="A11" s="30" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
       <c r="F11" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H11" s="34"/>
       <c r="I11" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K11" s="34"/>
       <c r="L11" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M11" s="34"/>
       <c r="N11" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1" spans="1:14">
       <c r="A12" s="30" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K12" s="34"/>
       <c r="L12" s="33">
@@ -7410,28 +7425,28 @@
       </c>
       <c r="M12" s="34"/>
       <c r="N12" s="33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1" spans="1:14">
       <c r="A13" s="30" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
       <c r="F13" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J13" s="33">
         <v>0.015</v>
@@ -7442,216 +7457,216 @@
       </c>
       <c r="M13" s="34"/>
       <c r="N13" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" ht="13" customHeight="1" spans="1:14">
       <c r="A14" s="30" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="33" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
       <c r="F14" s="33" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="33" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K14" s="34"/>
       <c r="L14" s="33" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M14" s="34"/>
       <c r="N14" s="33" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1" spans="1:14">
       <c r="A15" s="30" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="33" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
       <c r="F15" s="33" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H15" s="34"/>
       <c r="I15" s="33" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K15" s="34"/>
       <c r="L15" s="33" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M15" s="34"/>
       <c r="N15" s="33" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1" spans="1:14">
       <c r="A16" s="30" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="33" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
       <c r="F16" s="33" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H16" s="34"/>
       <c r="I16" s="33" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K16" s="34"/>
       <c r="L16" s="33" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M16" s="34"/>
       <c r="N16" s="33" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1" spans="1:14">
       <c r="A17" s="30" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="33" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D17" s="34"/>
       <c r="E17" s="34"/>
       <c r="F17" s="33" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H17" s="34"/>
       <c r="I17" s="33" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K17" s="34"/>
       <c r="L17" s="33" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M17" s="34"/>
       <c r="N17" s="33" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" ht="13" customHeight="1" spans="1:14">
       <c r="A18" s="30" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
       <c r="F18" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H18" s="34"/>
       <c r="I18" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K18" s="34"/>
       <c r="L18" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M18" s="34"/>
       <c r="N18" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1" spans="1:14">
       <c r="A19" s="30" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="33" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
       <c r="F19" s="33" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H19" s="34"/>
       <c r="I19" s="33" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K19" s="34"/>
       <c r="L19" s="33" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M19" s="34"/>
       <c r="N19" s="33" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1" spans="1:14">
       <c r="A20" s="30" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
       <c r="F20" s="33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H20" s="34"/>
       <c r="I20" s="33">
@@ -7667,7 +7682,7 @@
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:14">
       <c r="A21" s="37" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B21" s="36"/>
       <c r="C21" s="33">
@@ -7695,16 +7710,16 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:14">
       <c r="A22" s="37" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B22" s="36"/>
       <c r="C22" s="33" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
       <c r="F22" s="33" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G22" s="33">
         <v>19.2</v>
@@ -7723,103 +7738,103 @@
     </row>
     <row r="23" ht="38.25" customHeight="1" spans="1:14">
       <c r="A23" s="30" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="38" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
       <c r="F23" s="38" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H23" s="39"/>
       <c r="I23" s="38" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J23" s="38" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K23" s="39"/>
       <c r="L23" s="38" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M23" s="39"/>
       <c r="N23" s="38" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1" spans="1:14">
       <c r="A24" s="30" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D24" s="34"/>
       <c r="E24" s="34"/>
       <c r="F24" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H24" s="34"/>
       <c r="I24" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="J24" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K24" s="34"/>
       <c r="L24" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M24" s="34"/>
       <c r="N24" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" ht="13" customHeight="1" spans="1:14">
       <c r="A25" s="30" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
       <c r="F25" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H25" s="34"/>
       <c r="I25" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="J25" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K25" s="34"/>
       <c r="L25" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M25" s="34"/>
       <c r="N25" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1" spans="1:14">
       <c r="A26" s="43" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B26" s="44"/>
       <c r="C26" s="56"/>
@@ -7830,50 +7845,50 @@
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K26" s="34"/>
       <c r="L26" s="33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M26" s="34"/>
       <c r="N26" s="10"/>
     </row>
     <row r="27" ht="13" customHeight="1" spans="1:14">
       <c r="A27" s="30" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D27" s="34"/>
       <c r="E27" s="34"/>
       <c r="F27" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H27" s="34"/>
       <c r="I27" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J27" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K27" s="34"/>
       <c r="L27" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M27" s="34"/>
       <c r="N27" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1" spans="1:14">
       <c r="A28" s="30" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="56"/>
@@ -7891,7 +7906,7 @@
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:14">
       <c r="A29" s="30" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="38">
@@ -7919,7 +7934,7 @@
     </row>
     <row r="30" ht="12.75" customHeight="1" spans="1:14">
       <c r="A30" s="30" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="10"/>
@@ -7930,18 +7945,18 @@
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="33" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K30" s="34"/>
       <c r="L30" s="33" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M30" s="34"/>
       <c r="N30" s="10"/>
     </row>
     <row r="31" ht="12.75" customHeight="1" spans="1:14">
       <c r="A31" s="30" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="56"/>
@@ -7952,18 +7967,18 @@
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K31" s="34"/>
       <c r="L31" s="33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M31" s="34"/>
       <c r="N31" s="10"/>
     </row>
     <row r="32" ht="13" customHeight="1" spans="1:14">
       <c r="A32" s="30" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="10"/>
@@ -7985,39 +8000,39 @@
     </row>
     <row r="33" ht="12.75" customHeight="1" spans="1:14">
       <c r="A33" s="43" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B33" s="44"/>
       <c r="C33" s="33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D33" s="34"/>
       <c r="E33" s="34"/>
       <c r="F33" s="33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H33" s="34"/>
       <c r="I33" s="33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="J33" s="33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K33" s="34"/>
       <c r="L33" s="33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M33" s="34"/>
       <c r="N33" s="33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1" spans="1:14">
       <c r="A34" s="30" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="38">
@@ -8250,8 +8265,8 @@
   <sheetPr/>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8271,15 +8286,15 @@
   <sheetData>
     <row r="1" ht="27.6" customHeight="1" spans="1:11">
       <c r="D1" s="52" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K1" s="53" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:11">
       <c r="A2" s="28" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="30" t="s">
@@ -8308,7 +8323,7 @@
     </row>
     <row r="3" ht="12.75" customHeight="1" spans="1:11">
       <c r="A3" s="35" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="33">
@@ -8325,7 +8340,7 @@
         <v>0.069</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I3" s="34"/>
       <c r="J3" s="33">
@@ -8337,7 +8352,7 @@
     </row>
     <row r="4" ht="12.75" customHeight="1" spans="1:11">
       <c r="A4" s="54" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="33">
@@ -8366,7 +8381,7 @@
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:11">
       <c r="A5" s="31" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="38">
@@ -8387,7 +8402,7 @@
       </c>
       <c r="I5" s="39"/>
       <c r="J5" s="38" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K5" s="38">
         <v>0.54</v>
@@ -8395,7 +8410,7 @@
     </row>
     <row r="6" ht="12.75" customHeight="1" spans="1:11">
       <c r="A6" s="40" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="33">
@@ -8424,18 +8439,18 @@
     </row>
     <row r="7" ht="12.75" customHeight="1" spans="1:11">
       <c r="A7" s="41" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -8444,23 +8459,23 @@
         <v>0.296</v>
       </c>
       <c r="K7" s="33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1" spans="1:11">
       <c r="A8" s="42" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -8469,102 +8484,102 @@
         <v>0.147</v>
       </c>
       <c r="K8" s="33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1" spans="1:11">
       <c r="A9" s="30" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="33" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="33" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="33" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K9" s="33" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1" spans="1:11">
       <c r="A10" s="30" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="33" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="33" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="33" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" ht="13" customHeight="1" spans="1:11">
       <c r="A11" s="30" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I11" s="34"/>
       <c r="J11" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K11" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1" spans="1:11">
       <c r="A12" s="30" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="33">
         <v>0.038</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G12" s="33">
         <v>0.091</v>
@@ -8574,73 +8589,73 @@
       </c>
       <c r="I12" s="34"/>
       <c r="J12" s="33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K12" s="33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1" spans="1:11">
       <c r="A13" s="30" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G13" s="33">
         <v>0.023</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I13" s="34"/>
       <c r="J13" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1" spans="1:11">
       <c r="A14" s="30" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="33" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="33" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I14" s="34"/>
       <c r="J14" s="33" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" ht="13" customHeight="1" spans="1:11">
       <c r="A15" s="30" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="33">
@@ -8648,144 +8663,144 @@
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="33" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I15" s="34"/>
       <c r="J15" s="33" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1" spans="1:11">
       <c r="A16" s="30" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="33" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="33" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I16" s="34"/>
       <c r="J16" s="33" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K16" s="55" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1" spans="1:11">
       <c r="A17" s="43" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B17" s="44"/>
       <c r="C17" s="33" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D17" s="34"/>
       <c r="E17" s="33" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I17" s="34"/>
       <c r="J17" s="33" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K17" s="33" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1" spans="1:11">
       <c r="A18" s="30" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D18" s="34"/>
       <c r="E18" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I18" s="34"/>
       <c r="J18" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K18" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" ht="13" customHeight="1" spans="1:11">
       <c r="A19" s="30" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="33" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D19" s="34"/>
       <c r="E19" s="55" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I19" s="34"/>
       <c r="J19" s="33" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K19" s="33" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1" spans="1:11">
       <c r="A20" s="30" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="33">
@@ -8802,15 +8817,15 @@
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K20" s="33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:11">
       <c r="A21" s="30" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="33">
@@ -8835,7 +8850,7 @@
     </row>
     <row r="22" ht="13" customHeight="1" spans="1:11">
       <c r="A22" s="46" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="33">
@@ -8846,7 +8861,7 @@
         <v>3.01</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
@@ -8860,94 +8875,94 @@
     </row>
     <row r="23" ht="38.25" customHeight="1" spans="1:11">
       <c r="A23" s="40" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B23" s="36"/>
       <c r="C23" s="38" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D23" s="39"/>
       <c r="E23" s="38" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I23" s="39"/>
       <c r="J23" s="38" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K23" s="38" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1" spans="1:11">
       <c r="A24" s="45" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D24" s="34"/>
       <c r="E24" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I24" s="34"/>
       <c r="J24" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K24" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" ht="13" customHeight="1" spans="1:11">
       <c r="A25" s="30" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D25" s="34"/>
       <c r="E25" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I25" s="34"/>
       <c r="J25" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K25" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1" spans="1:11">
       <c r="A26" s="30" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="56"/>
@@ -8955,10 +8970,10 @@
       <c r="E26" s="10"/>
       <c r="F26" s="33"/>
       <c r="G26" s="33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H26" s="57" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
@@ -8966,36 +8981,36 @@
     </row>
     <row r="27" ht="12.75" customHeight="1" spans="1:11">
       <c r="A27" s="45" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D27" s="34"/>
       <c r="E27" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I27" s="34"/>
       <c r="J27" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K27" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1" spans="1:11">
       <c r="A28" s="30" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="10"/>
@@ -9010,7 +9025,7 @@
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:11">
       <c r="A29" s="30" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="38">
@@ -9030,12 +9045,12 @@
         <v>189</v>
       </c>
       <c r="K29" s="38" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1" spans="1:11">
       <c r="A30" s="45" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="10"/>
@@ -9043,10 +9058,10 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="33" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I30" s="34"/>
       <c r="J30" s="10"/>
@@ -9054,7 +9069,7 @@
     </row>
     <row r="31" ht="12.75" customHeight="1" spans="1:11">
       <c r="A31" s="30" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="56"/>
@@ -9062,10 +9077,10 @@
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H31" s="33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I31" s="34"/>
       <c r="J31" s="10"/>
@@ -9073,15 +9088,15 @@
     </row>
     <row r="32" ht="12.75" customHeight="1" spans="1:11">
       <c r="A32" s="42" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B32" s="36"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="33">
-        <v>0.9</v>
+      <c r="G32" s="33" t="s">
+        <v>232</v>
       </c>
       <c r="H32" s="33">
         <v>0.85</v>
@@ -9092,36 +9107,36 @@
     </row>
     <row r="33" ht="12.75" customHeight="1" spans="1:11">
       <c r="A33" s="40" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B33" s="36"/>
       <c r="C33" s="33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D33" s="34"/>
       <c r="E33" s="33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G33" s="33">
         <v>0.021</v>
       </c>
       <c r="H33" s="33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I33" s="34"/>
       <c r="J33" s="33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K33" s="33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1" spans="1:11">
       <c r="A34" s="41" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B34" s="36"/>
       <c r="C34" s="38">
@@ -9129,7 +9144,7 @@
       </c>
       <c r="D34" s="39"/>
       <c r="E34" s="38" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F34" s="38">
         <v>134</v>
@@ -9141,7 +9156,7 @@
         <v>203</v>
       </c>
       <c r="K34" s="38" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" ht="16.45" customHeight="1" spans="1:11">
@@ -9297,12 +9312,12 @@
   <sheetData>
     <row r="1" ht="28.3" customHeight="1" spans="1:7">
       <c r="A1" s="27" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:7">
       <c r="A2" s="28" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="30" t="s">
@@ -9321,7 +9336,7 @@
     </row>
     <row r="3" ht="12.75" customHeight="1" spans="1:7">
       <c r="A3" s="31" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="33">
@@ -9340,7 +9355,7 @@
     </row>
     <row r="4" ht="12.75" customHeight="1" spans="1:7">
       <c r="A4" s="35" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="33">
@@ -9359,26 +9374,26 @@
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:7">
       <c r="A5" s="37" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="38" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D5" s="38">
         <v>0.54</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="38" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1" spans="1:7">
       <c r="A6" s="40" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="33">
@@ -9397,14 +9412,14 @@
     </row>
     <row r="7" ht="13" customHeight="1" spans="1:7">
       <c r="A7" s="41" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="33">
         <v>0.274</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -9412,14 +9427,14 @@
     </row>
     <row r="8" ht="12.75" customHeight="1" spans="1:7">
       <c r="A8" s="42" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="33">
         <v>0.137</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -9427,14 +9442,14 @@
     </row>
     <row r="9" ht="12.75" customHeight="1" spans="1:7">
       <c r="A9" s="43" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B9" s="44"/>
       <c r="C9" s="33" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -9442,14 +9457,14 @@
     </row>
     <row r="10" ht="12.75" customHeight="1" spans="1:7">
       <c r="A10" s="45" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="33" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -9457,36 +9472,36 @@
     </row>
     <row r="11" ht="13" customHeight="1" spans="1:7">
       <c r="A11" s="30" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1" spans="1:7">
       <c r="A12" s="30" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="33">
@@ -9495,147 +9510,147 @@
     </row>
     <row r="13" ht="12.75" customHeight="1" spans="1:7">
       <c r="A13" s="30" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1" spans="1:7">
       <c r="A14" s="30" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="33" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="33" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" ht="13" customHeight="1" spans="1:7">
       <c r="A15" s="30" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="33" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="33" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1" spans="1:7">
       <c r="A16" s="46" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="33" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="33" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" ht="13" customHeight="1" spans="1:7">
       <c r="A17" s="37" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B17" s="36"/>
       <c r="C17" s="33" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="33" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1" spans="1:7">
       <c r="A18" s="46" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" ht="13" customHeight="1" spans="1:7">
       <c r="A19" s="46" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="33" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="33" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1" spans="1:7">
       <c r="A20" s="37" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B20" s="36"/>
       <c r="C20" s="33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -9643,7 +9658,7 @@
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:7">
       <c r="A21" s="37" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B21" s="36"/>
       <c r="C21" s="33">
@@ -9658,7 +9673,7 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:7">
       <c r="A22" s="47" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B22" s="36"/>
       <c r="C22" s="33">
@@ -9673,98 +9688,98 @@
     </row>
     <row r="23" ht="38.25" customHeight="1" spans="1:7">
       <c r="A23" s="30" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="38" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F23" s="39"/>
       <c r="G23" s="38" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1" spans="1:7">
       <c r="A24" s="45" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F24" s="34"/>
       <c r="G24" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1" spans="1:7">
       <c r="A25" s="30" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F25" s="34"/>
       <c r="G25" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1" spans="1:7">
       <c r="A26" s="45" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F26" s="34"/>
       <c r="G26" s="33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" ht="13" customHeight="1" spans="1:7">
       <c r="A27" s="45" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F27" s="34"/>
       <c r="G27" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1" spans="1:7">
       <c r="A28" s="30" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="10"/>
@@ -9775,7 +9790,7 @@
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:7">
       <c r="A29" s="30" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="38">
@@ -9790,37 +9805,37 @@
     </row>
     <row r="30" ht="12.75" customHeight="1" spans="1:7">
       <c r="A30" s="30" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="33" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F30" s="34"/>
       <c r="G30" s="33" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" ht="13" customHeight="1" spans="1:7">
       <c r="A31" s="30" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F31" s="34"/>
       <c r="G31" s="33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1" spans="1:7">
       <c r="A32" s="30" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="10"/>
@@ -9835,26 +9850,26 @@
     </row>
     <row r="33" ht="12.75" customHeight="1" spans="1:7">
       <c r="A33" s="30" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B33" s="22"/>
       <c r="C33" s="33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1" spans="1:7">
       <c r="A34" s="30" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="38">
@@ -9962,7 +9977,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -9977,177 +9992,177 @@
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:8">
       <c r="C1" s="17" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" ht="14.1" customHeight="1" spans="1:8">
       <c r="G2" s="18" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" ht="28.25" customHeight="1" spans="1:8">
       <c r="A3" s="19" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="20" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" ht="22" customHeight="1" spans="1:8">
       <c r="A4" s="21" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="23" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" ht="21" customHeight="1" spans="1:8">
       <c r="A5" s="21" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" ht="22" customHeight="1" spans="1:8">
       <c r="A6" s="21" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" ht="22" customHeight="1" spans="1:8">
       <c r="A7" s="21" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" ht="22" customHeight="1" spans="1:8">
       <c r="A8" s="21" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="23">
         <v>0.0049</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" ht="21.5" customHeight="1" spans="1:8">
       <c r="A9" s="21" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="23">
         <v>0.0054</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H9" s="23">
         <v>0.11</v>
@@ -10155,23 +10170,23 @@
     </row>
     <row r="10" ht="22" customHeight="1" spans="1:8">
       <c r="A10" s="21" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="23">
         <v>0.0108</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E10" s="23">
         <v>0.0011</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H10" s="23">
         <v>0.21</v>
@@ -10179,23 +10194,23 @@
     </row>
     <row r="11" ht="22" customHeight="1" spans="1:8">
       <c r="A11" s="21" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="23">
         <v>0.0073</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E11" s="23">
         <v>0.0011</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H11" s="23">
         <v>0.15</v>
@@ -10203,47 +10218,47 @@
     </row>
     <row r="12" ht="22" customHeight="1" spans="1:8">
       <c r="A12" s="21" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="23" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" ht="22" customHeight="1" spans="1:8">
       <c r="A13" s="21" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="23">
         <v>0.0062</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H13" s="23">
         <v>0.12</v>
@@ -10251,47 +10266,47 @@
     </row>
     <row r="14" ht="22" customHeight="1" spans="1:8">
       <c r="A14" s="21" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="23" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" ht="21.5" customHeight="1" spans="1:8">
       <c r="A15" s="21" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B15" s="22"/>
-      <c r="C15" s="23">
-        <v>0.017</v>
+      <c r="C15" s="23" t="s">
+        <v>272</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E15" s="23">
         <v>0.0022</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H15" s="23">
         <v>0.33</v>
@@ -10299,74 +10314,74 @@
     </row>
     <row r="16" ht="22" customHeight="1" spans="1:8">
       <c r="A16" s="21" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="23" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" ht="21.5" customHeight="1" spans="1:8">
       <c r="A17" s="21" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="23" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" ht="22.25" customHeight="1" spans="1:8">
       <c r="A18" s="21" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="23" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" ht="24.95" customHeight="1" spans="1:8">
@@ -10429,41 +10444,41 @@
   <sheetData>
     <row r="1" ht="13.5" customHeight="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1" spans="1:5">
       <c r="D2" s="2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5">
       <c r="A4" s="6" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="8">
         <v>0.046</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5">
       <c r="A5" s="6" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="8">
@@ -10475,19 +10490,19 @@
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="8">
         <v>0.021</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:5">
       <c r="A7" s="6" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="8">
@@ -10499,7 +10514,7 @@
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="8">
@@ -10511,11 +10526,11 @@
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="8" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D9" s="8">
         <v>0.034</v>
@@ -10523,7 +10538,7 @@
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="8">
@@ -10535,7 +10550,7 @@
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="8">
@@ -10547,35 +10562,35 @@
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="8">
         <v>0.023</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="8">
         <v>0.017</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:5">
       <c r="A14" s="9" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="8" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D14" s="8">
         <v>0.029</v>
@@ -10583,7 +10598,7 @@
     </row>
     <row r="15" ht="15.05" customHeight="1" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="10">
